--- a/data/Behavioral/description/Temp_Disc.xlsx
+++ b/data/Behavioral/description/Temp_Disc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_Jan_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="2760" windowWidth="28280" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="3360" yWindow="2200" windowWidth="28280" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="236">
   <si>
-    <t>TOWRE-2</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -51,312 +48,6 @@
   </si>
   <si>
     <t>Item</t>
-  </si>
-  <si>
-    <t>run1_trial1_RT</t>
-  </si>
-  <si>
-    <t>run1_trial2_RT</t>
-  </si>
-  <si>
-    <t>run1_trial3_RT</t>
-  </si>
-  <si>
-    <t>run1_trial4_RT</t>
-  </si>
-  <si>
-    <t>run1_trial5_RT</t>
-  </si>
-  <si>
-    <t>run1_trial1_delay</t>
-  </si>
-  <si>
-    <t>run1_trial2_delay</t>
-  </si>
-  <si>
-    <t>run1_trial3_delay</t>
-  </si>
-  <si>
-    <t>run1_trial4_delay</t>
-  </si>
-  <si>
-    <t>run1_trial5_delay</t>
-  </si>
-  <si>
-    <t>run1_trial1_resp</t>
-  </si>
-  <si>
-    <t>run1_trial2_resp</t>
-  </si>
-  <si>
-    <t>run1_trial3_resp</t>
-  </si>
-  <si>
-    <t>run1_trial4_resp</t>
-  </si>
-  <si>
-    <t>run1_trial5_resp</t>
-  </si>
-  <si>
-    <t>run1_k</t>
-  </si>
-  <si>
-    <t>run1_ed50</t>
-  </si>
-  <si>
-    <t>run2_trial1_RT</t>
-  </si>
-  <si>
-    <t>run2_trial2_RT</t>
-  </si>
-  <si>
-    <t>run2_trial3_RT</t>
-  </si>
-  <si>
-    <t>run2_trial4_RT</t>
-  </si>
-  <si>
-    <t>run2_trial5_RT</t>
-  </si>
-  <si>
-    <t>run2_trial1_delay</t>
-  </si>
-  <si>
-    <t>run2_trial2_delay</t>
-  </si>
-  <si>
-    <t>run2_trial3_delay</t>
-  </si>
-  <si>
-    <t>run2_trial4_delay</t>
-  </si>
-  <si>
-    <t>run2_trial5_delay</t>
-  </si>
-  <si>
-    <t>run2_trial1_resp</t>
-  </si>
-  <si>
-    <t>run2_trial2_resp</t>
-  </si>
-  <si>
-    <t>run2_trial3_resp</t>
-  </si>
-  <si>
-    <t>run2_trial4_resp</t>
-  </si>
-  <si>
-    <t>run2_trial5_resp</t>
-  </si>
-  <si>
-    <t>run2_k</t>
-  </si>
-  <si>
-    <t>run2_ed50</t>
-  </si>
-  <si>
-    <t>run3_trial1_RT</t>
-  </si>
-  <si>
-    <t>run3_trial2_RT</t>
-  </si>
-  <si>
-    <t>run3_trial3_RT</t>
-  </si>
-  <si>
-    <t>run3_trial4_RT</t>
-  </si>
-  <si>
-    <t>run3_trial5_RT</t>
-  </si>
-  <si>
-    <t>run3_trial1_delay</t>
-  </si>
-  <si>
-    <t>run3_trial2_delay</t>
-  </si>
-  <si>
-    <t>run3_trial3_delay</t>
-  </si>
-  <si>
-    <t>run3_trial4_delay</t>
-  </si>
-  <si>
-    <t>run3_trial5_delay</t>
-  </si>
-  <si>
-    <t>run3_trial1_resp</t>
-  </si>
-  <si>
-    <t>run3_trial2_resp</t>
-  </si>
-  <si>
-    <t>run3_trial3_resp</t>
-  </si>
-  <si>
-    <t>run3_trial4_resp</t>
-  </si>
-  <si>
-    <t>run3_trial5_resp</t>
-  </si>
-  <si>
-    <t>run3_k</t>
-  </si>
-  <si>
-    <t>run3_ed50</t>
-  </si>
-  <si>
-    <t>run4_trial1_RT</t>
-  </si>
-  <si>
-    <t>run4_trial2_RT</t>
-  </si>
-  <si>
-    <t>run4_trial3_RT</t>
-  </si>
-  <si>
-    <t>run4_trial4_RT</t>
-  </si>
-  <si>
-    <t>run4_trial5_RT</t>
-  </si>
-  <si>
-    <t>run4_trial1_delay</t>
-  </si>
-  <si>
-    <t>run4_trial2_delay</t>
-  </si>
-  <si>
-    <t>run4_trial3_delay</t>
-  </si>
-  <si>
-    <t>run4_trial4_delay</t>
-  </si>
-  <si>
-    <t>run4_trial5_delay</t>
-  </si>
-  <si>
-    <t>run4_trial1_resp</t>
-  </si>
-  <si>
-    <t>run4_trial2_resp</t>
-  </si>
-  <si>
-    <t>run4_trial3_resp</t>
-  </si>
-  <si>
-    <t>run4_trial4_resp</t>
-  </si>
-  <si>
-    <t>run4_trial5_resp</t>
-  </si>
-  <si>
-    <t>run4_k</t>
-  </si>
-  <si>
-    <t>run4_ed50</t>
-  </si>
-  <si>
-    <t>run5_trial1_RT</t>
-  </si>
-  <si>
-    <t>run5_trial2_RT</t>
-  </si>
-  <si>
-    <t>run5_trial3_RT</t>
-  </si>
-  <si>
-    <t>run5_trial4_RT</t>
-  </si>
-  <si>
-    <t>run5_trial5_RT</t>
-  </si>
-  <si>
-    <t>run5_trial1_delay</t>
-  </si>
-  <si>
-    <t>run5_trial2_delay</t>
-  </si>
-  <si>
-    <t>run5_trial3_delay</t>
-  </si>
-  <si>
-    <t>run5_trial4_delay</t>
-  </si>
-  <si>
-    <t>run5_trial5_delay</t>
-  </si>
-  <si>
-    <t>run5_trial1_resp</t>
-  </si>
-  <si>
-    <t>run5_trial2_resp</t>
-  </si>
-  <si>
-    <t>run5_trial3_resp</t>
-  </si>
-  <si>
-    <t>run5_trial4_resp</t>
-  </si>
-  <si>
-    <t>run5_trial5_resp</t>
-  </si>
-  <si>
-    <t>run5_k</t>
-  </si>
-  <si>
-    <t>run5_ed50</t>
-  </si>
-  <si>
-    <t>run6_trial1_RT</t>
-  </si>
-  <si>
-    <t>run6_trial2_RT</t>
-  </si>
-  <si>
-    <t>run6_trial3_RT</t>
-  </si>
-  <si>
-    <t>run6_trial4_RT</t>
-  </si>
-  <si>
-    <t>run6_trial5_RT</t>
-  </si>
-  <si>
-    <t>run6_trial1_delay</t>
-  </si>
-  <si>
-    <t>run6_trial2_delay</t>
-  </si>
-  <si>
-    <t>run6_trial3_delay</t>
-  </si>
-  <si>
-    <t>run6_trial4_delay</t>
-  </si>
-  <si>
-    <t>run6_trial5_delay</t>
-  </si>
-  <si>
-    <t>run6_trial1_resp</t>
-  </si>
-  <si>
-    <t>run6_trial2_resp</t>
-  </si>
-  <si>
-    <t>run6_trial3_resp</t>
-  </si>
-  <si>
-    <t>run6_trial4_resp</t>
-  </si>
-  <si>
-    <t>run6_trial5_resp</t>
-  </si>
-  <si>
-    <t>run6_k</t>
-  </si>
-  <si>
-    <t>run6_ed50</t>
   </si>
   <si>
     <t>Run 1, Trial 1 Response Time</t>
@@ -736,6 +427,315 @@
   </si>
   <si>
     <t>Run 6</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial1_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial2_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial3_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial4_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial5_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial1_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial2_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial3_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial4_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial5_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial1_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial2_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial3_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial4_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_trial5_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_k</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run1_ed50</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial1_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial2_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial3_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial4_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial5_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial1_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial2_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial3_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial4_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial5_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial1_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial2_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial3_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial4_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_trial5_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_k</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run2_ed50</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial1_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial2_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial3_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial4_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial5_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial1_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial2_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial3_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial4_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial5_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial1_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial2_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial3_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial4_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_trial5_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_k</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run3_ed50</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial1_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial2_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial3_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial4_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial5_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial1_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial2_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial3_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial4_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial5_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial1_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial2_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial3_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial4_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_trial5_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_k</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run4_ed50</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial1_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial2_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial3_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial4_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial5_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial1_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial2_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial3_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial4_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial5_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial1_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial2_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial3_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial4_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_trial5_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_k</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run5_ed50</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial1_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial2_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial3_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial4_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial5_RT</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial1_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial2_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial3_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial4_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial5_delay</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial1_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial2_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial3_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial4_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_trial5_resp</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_k</t>
+  </si>
+  <si>
+    <t>Temp_Disc_run6_ed50</t>
+  </si>
+  <si>
+    <t>Temporal Discounting Task</t>
   </si>
 </sst>
 </file>
@@ -1287,13 +1287,13 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
@@ -1305,91 +1305,91 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="H4" s="5">
         <v>10</v>
@@ -1412,1387 +1412,1387 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
